--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N2">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P2">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q2">
-        <v>1.385703138997778</v>
+        <v>1.329406389881667</v>
       </c>
       <c r="R2">
-        <v>12.47132825098</v>
+        <v>11.964657508935</v>
       </c>
       <c r="S2">
-        <v>0.004052948970806653</v>
+        <v>0.003583348908383318</v>
       </c>
       <c r="T2">
-        <v>0.004052948970806652</v>
+        <v>0.003583348908383318</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>39.485284</v>
       </c>
       <c r="O3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P3">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q3">
-        <v>13.23077283525778</v>
+        <v>9.63636162393111</v>
       </c>
       <c r="R3">
-        <v>119.07695551732</v>
+        <v>86.72725461537999</v>
       </c>
       <c r="S3">
-        <v>0.03869778860746351</v>
+        <v>0.02597433423572913</v>
       </c>
       <c r="T3">
-        <v>0.03869778860746351</v>
+        <v>0.02597433423572914</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N4">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O4">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P4">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q4">
-        <v>9.251925899213333</v>
+        <v>7.110192157717778</v>
       </c>
       <c r="R4">
-        <v>83.26733309292</v>
+        <v>63.99172941945999</v>
       </c>
       <c r="S4">
-        <v>0.02706032951496131</v>
+        <v>0.01916516988384681</v>
       </c>
       <c r="T4">
-        <v>0.0270603295149613</v>
+        <v>0.01916516988384681</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N5">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O5">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P5">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q5">
-        <v>0.8334412162066666</v>
+        <v>0.8949715333316666</v>
       </c>
       <c r="R5">
-        <v>7.500970945859999</v>
+        <v>8.054743799984999</v>
       </c>
       <c r="S5">
-        <v>0.002437675591826794</v>
+        <v>0.002412351325679752</v>
       </c>
       <c r="T5">
-        <v>0.002437675591826794</v>
+        <v>0.002412351325679752</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N6">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P6">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q6">
-        <v>14.14293544496311</v>
+        <v>18.62941612773267</v>
       </c>
       <c r="R6">
-        <v>127.286419004668</v>
+        <v>167.664745149594</v>
       </c>
       <c r="S6">
-        <v>0.04136571105504301</v>
+        <v>0.05021466607443606</v>
       </c>
       <c r="T6">
-        <v>0.041365711055043</v>
+        <v>0.05021466607443606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>39.485284</v>
       </c>
       <c r="O7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P7">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q7">
         <v>135.0375566236791</v>
@@ -883,10 +883,10 @@
         <v>1215.338009613112</v>
       </c>
       <c r="S7">
-        <v>0.3949621753285666</v>
+        <v>0.3639870281963086</v>
       </c>
       <c r="T7">
-        <v>0.3949621753285666</v>
+        <v>0.3639870281963087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N8">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O8">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P8">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q8">
-        <v>94.42815495734133</v>
+        <v>99.63749946023378</v>
       </c>
       <c r="R8">
-        <v>849.853394616072</v>
+        <v>896.737495142104</v>
       </c>
       <c r="S8">
-        <v>0.276186495273676</v>
+        <v>0.2685679320050904</v>
       </c>
       <c r="T8">
-        <v>0.2761864952736759</v>
+        <v>0.2685679320050904</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N9">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O9">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P9">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q9">
-        <v>8.506371232230666</v>
+        <v>12.54153526251267</v>
       </c>
       <c r="R9">
-        <v>76.55734109007599</v>
+        <v>112.873817362614</v>
       </c>
       <c r="S9">
-        <v>0.0248797073202155</v>
+        <v>0.03380508551367496</v>
       </c>
       <c r="T9">
-        <v>0.02487970732021549</v>
+        <v>0.03380508551367496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N10">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P10">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q10">
-        <v>3.121815167220666</v>
+        <v>4.662874853253667</v>
       </c>
       <c r="R10">
-        <v>28.096336504986</v>
+        <v>41.96587367928301</v>
       </c>
       <c r="S10">
-        <v>0.009130785095995868</v>
+        <v>0.01256854761832597</v>
       </c>
       <c r="T10">
-        <v>0.009130785095995868</v>
+        <v>0.01256854761832597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>39.485284</v>
       </c>
       <c r="O11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P11">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q11">
-        <v>29.80726978870267</v>
+        <v>33.79940749125378</v>
       </c>
       <c r="R11">
-        <v>268.265428098324</v>
+        <v>304.194667421284</v>
       </c>
       <c r="S11">
-        <v>0.08718125838991295</v>
+        <v>0.09110462448474306</v>
       </c>
       <c r="T11">
-        <v>0.08718125838991295</v>
+        <v>0.09110462448474307</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N12">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O12">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P12">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q12">
-        <v>20.843427271916</v>
+        <v>24.93890240513645</v>
       </c>
       <c r="R12">
-        <v>187.590845447244</v>
+        <v>224.450121646228</v>
       </c>
       <c r="S12">
-        <v>0.06096352438870441</v>
+        <v>0.06722157301927693</v>
       </c>
       <c r="T12">
-        <v>0.0609635243887044</v>
+        <v>0.06722157301927693</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N13">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O13">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P13">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q13">
-        <v>1.877638403578</v>
+        <v>3.139100495463667</v>
       </c>
       <c r="R13">
-        <v>16.898745632202</v>
+        <v>28.251904459173</v>
       </c>
       <c r="S13">
-        <v>0.00549177700559478</v>
+        <v>0.008461289504352779</v>
       </c>
       <c r="T13">
-        <v>0.005491777005594779</v>
+        <v>0.008461289504352779</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.378475333333333</v>
+        <v>1.815761</v>
       </c>
       <c r="N14">
-        <v>4.135426</v>
+        <v>5.447283000000001</v>
       </c>
       <c r="O14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="P14">
-        <v>0.05609715574531156</v>
+        <v>0.07007596730428067</v>
       </c>
       <c r="Q14">
-        <v>0.5291622185833333</v>
+        <v>1.376172524944</v>
       </c>
       <c r="R14">
-        <v>4.76245996725</v>
+        <v>12.385552724496</v>
       </c>
       <c r="S14">
-        <v>0.00154771062346603</v>
+        <v>0.003709404703135317</v>
       </c>
       <c r="T14">
-        <v>0.00154771062346603</v>
+        <v>0.003709404703135317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>39.485284</v>
       </c>
       <c r="O15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959071</v>
       </c>
       <c r="P15">
-        <v>0.5356188518899525</v>
+        <v>0.5079540516959072</v>
       </c>
       <c r="Q15">
-        <v>5.052471131833333</v>
+        <v>9.975351561578664</v>
       </c>
       <c r="R15">
-        <v>45.4722401865</v>
+        <v>89.77816405420799</v>
       </c>
       <c r="S15">
-        <v>0.01477762956400944</v>
+        <v>0.02688806477912634</v>
       </c>
       <c r="T15">
-        <v>0.01477762956400944</v>
+        <v>0.02688806477912634</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.203668</v>
+        <v>9.711409333333334</v>
       </c>
       <c r="N16">
-        <v>27.611004</v>
+        <v>29.134228</v>
       </c>
       <c r="O16">
-        <v>0.3745439506528277</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="P16">
-        <v>0.3745439506528276</v>
+        <v>0.3747940411327002</v>
       </c>
       <c r="Q16">
-        <v>3.5330580535</v>
+        <v>7.360315979370666</v>
       </c>
       <c r="R16">
-        <v>31.7975224815</v>
+        <v>66.242843814336</v>
       </c>
       <c r="S16">
-        <v>0.01033360147548597</v>
+        <v>0.01983936622448597</v>
       </c>
       <c r="T16">
-        <v>0.01033360147548597</v>
+        <v>0.01983936622448597</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.829094</v>
+        <v>1.222391</v>
       </c>
       <c r="N17">
-        <v>2.487282</v>
+        <v>3.667173</v>
       </c>
       <c r="O17">
-        <v>0.03374004171190829</v>
+        <v>0.04717593986711188</v>
       </c>
       <c r="P17">
-        <v>0.03374004171190828</v>
+        <v>0.04717593986711189</v>
       </c>
       <c r="Q17">
-        <v>0.31826845925</v>
+        <v>0.9264550284639999</v>
       </c>
       <c r="R17">
-        <v>2.86441613325</v>
+        <v>8.338095256175999</v>
       </c>
       <c r="S17">
-        <v>0.0009308817942712155</v>
+        <v>0.002497213523404392</v>
       </c>
       <c r="T17">
-        <v>0.0009308817942712153</v>
+        <v>0.002497213523404392</v>
       </c>
     </row>
   </sheetData>
